--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD76C2-F50D-4C24-A063-23E6339D5D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9165" yWindow="195" windowWidth="10845" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +25,137 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>contemporánea</t>
+  </si>
+  <si>
+    <t>Alumno</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>ABANTO QUINO DANIEL EDUARDO</t>
+  </si>
+  <si>
+    <t>ALVARADO AGURTO MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>AMPUERO MAURICIO DAVID JUNIOR ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ARAOZ TARCO VLADIMIR</t>
+  </si>
+  <si>
+    <t>CALDERON ALZAMORA JULIO IGNACIO</t>
+  </si>
+  <si>
+    <t>CASTILLO ESPINOZA ALONSO JESUS</t>
+  </si>
+  <si>
+    <t>COLLANTES OTOYA KARLA GABRIELA</t>
+  </si>
+  <si>
+    <t>CORREA JIBAJA CLOVER DAVINSON</t>
+  </si>
+  <si>
+    <t>FUENTES BARTOLINI GABRIEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ OROZCO JULIO CESAR</t>
+  </si>
+  <si>
+    <t>LALUPU YOVERA MERCEDES</t>
+  </si>
+  <si>
+    <t>LOPEZ AGUILAR NAHUEL JOSE</t>
+  </si>
+  <si>
+    <t>PALACIOS VIERA GABRIEL LEONARDO</t>
+  </si>
+  <si>
+    <t>PALMA SIERRALTA JOSE ELIAS</t>
+  </si>
+  <si>
+    <t>PARIONA JESUS JOSE JOAQUIN</t>
+  </si>
+  <si>
+    <t>PUMA CASTRO RONNY ALEXANDER</t>
+  </si>
+  <si>
+    <t>SIGCHA HARO JIMMY XAVIER</t>
+  </si>
+  <si>
+    <t>TALLEDO ALVARADO ROBERTSON ANGEL</t>
+  </si>
+  <si>
+    <t>VIERA BRICEÑO GUADALUPE</t>
+  </si>
+  <si>
+    <t>VIVANCO GALLARDO CESAR ELI</t>
+  </si>
+  <si>
+    <t>ZEGARRA TERRAZAS JOSE VICTOR</t>
+  </si>
+  <si>
+    <t>ZEVALLOS ANFOSSI JOSE LUIS</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>ALEJOS DELGADO JOAQUIN</t>
+  </si>
+  <si>
+    <t>AREVALO ROCA MANUEL SEBASTIAN</t>
+  </si>
+  <si>
+    <t>CHIARA HIDALGO JEFRID LUIS</t>
+  </si>
+  <si>
+    <t>MARTINEZ RODRIGUEZ ROY ANTONIO RAI</t>
+  </si>
+  <si>
+    <t>ROJAS VILCHEZ EMILIO ANDRES</t>
+  </si>
+  <si>
+    <t>SANDOVAL ORMEÑO MARIA BEATRIZ</t>
+  </si>
+  <si>
+    <t>TUBINO BRYCE GIANFRANCO ELIO</t>
+  </si>
+  <si>
+    <t>VIZCARRA ANTUNEZ DE MAYOLO DAMARA VERONICA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +460,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43466CE-998F-41B2-9032-4F1FE7BAC77A}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD76C2-F50D-4C24-A063-23E6339D5D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F54E24-F483-4C07-83F9-7339BE916F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="195" windowWidth="10845" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2430" windowWidth="10845" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,21 +503,33 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -533,73 +545,94 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>

--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F54E24-F483-4C07-83F9-7339BE916F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B11EEE-BFF2-4EDA-BBCA-C39A16A947A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2430" windowWidth="10845" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8895" yWindow="435" windowWidth="10845" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +506,9 @@
       <c r="C6">
         <v>19</v>
       </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -514,6 +517,9 @@
       <c r="C7">
         <v>16</v>
       </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -530,11 +536,20 @@
       <c r="C9">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -548,6 +563,12 @@
       <c r="C12">
         <v>18</v>
       </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -564,6 +585,12 @@
       <c r="C14">
         <v>19</v>
       </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -572,54 +599,78 @@
       <c r="C15">
         <v>17</v>
       </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,12 +678,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>

--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B11EEE-BFF2-4EDA-BBCA-C39A16A947A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D812AE49-D97C-4262-93F4-51452B8DC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="435" windowWidth="10845" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8895" yWindow="435" windowWidth="10845" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,9 @@
       <c r="D6">
         <v>18</v>
       </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -577,6 +580,9 @@
       <c r="C13">
         <v>19</v>
       </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -623,6 +629,12 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -681,6 +693,9 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -698,7 +713,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,11 +747,17 @@
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -747,16 +768,25 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -767,25 +797,40 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D812AE49-D97C-4262-93F4-51452B8DC8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE46907A-EA53-49F8-93A7-21BDF3F0A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8895" yWindow="435" windowWidth="10845" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +531,9 @@
       <c r="C8">
         <v>17</v>
       </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -616,8 +619,11 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -625,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -636,7 +642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -647,12 +653,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,32 +679,47 @@
       <c r="D22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>

--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE46907A-EA53-49F8-93A7-21BDF3F0A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71BF66-5422-45B4-A6F0-03527D7F3D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="435" windowWidth="10845" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="60" windowWidth="14745" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +157,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,9 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,23 +501,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -494,12 +534,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5">
+        <f>C5+D5+E5+F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>G5/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,8 +564,16 @@
       <c r="E6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" ref="G6:G12" si="0">C6+D6+E6+F6</f>
+        <v>54</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H26" si="1">G6/4</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -523,8 +583,16 @@
       <c r="D7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,49 +602,109 @@
       <c r="D8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="3">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -586,22 +714,41 @@
       <c r="D13">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="G13">
+        <f t="shared" ref="G13:G23" si="2">C13+D13+E13+F13</f>
+        <v>37</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -614,62 +761,146 @@
       <c r="E15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="D18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="3">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -682,8 +913,16 @@
       <c r="E22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -693,8 +932,16 @@
       <c r="E23">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -704,8 +951,19 @@
       <c r="D24">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <f>C24+D24+E24+F24</f>
+        <v>48</v>
+      </c>
+      <c r="H24" s="8">
+        <f>G24/4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -718,10 +976,30 @@
       <c r="E25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="G25">
+        <f t="shared" ref="G25:G26" si="3">C25+D25+E25+F25</f>
+        <v>49</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +1012,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,6 +1049,15 @@
       <c r="C5">
         <v>18</v>
       </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -779,11 +1066,32 @@
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -792,6 +1100,15 @@
       <c r="C8">
         <v>18</v>
       </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -800,6 +1117,15 @@
       <c r="C9">
         <v>19</v>
       </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -808,10 +1134,31 @@
       <c r="C10">
         <v>16</v>
       </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -821,6 +1168,15 @@
       <c r="C12">
         <v>13</v>
       </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -829,6 +1185,15 @@
       <c r="C13">
         <v>19</v>
       </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -837,6 +1202,15 @@
       <c r="C14">
         <v>17</v>
       </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -845,12 +1219,30 @@
       <c r="C15">
         <v>16</v>
       </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
         <v>19</v>
       </c>
     </row>

--- a/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
+++ b/DigSite/New Arcaism/uarm 2024 2/omfg pls no nooo.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2024 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71BF66-5422-45B4-A6F0-03527D7F3D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B653D-2269-4EC8-AC28-F1A1630A9CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="60" windowWidth="14745" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4035" yWindow="90" windowWidth="19965" windowHeight="9795" tabRatio="655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
   <si>
     <t>contemporánea</t>
   </si>
@@ -137,13 +141,307 @@
   </si>
   <si>
     <t>VIZCARRA ANTUNEZ DE MAYOLO DAMARA VERONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensamiento Crítico </t>
+  </si>
+  <si>
+    <t>alumno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debate 1 </t>
+  </si>
+  <si>
+    <t>debate 2</t>
+  </si>
+  <si>
+    <t>Logica y Argumentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alumno </t>
+  </si>
+  <si>
+    <t>Práctica 1</t>
+  </si>
+  <si>
+    <t>Práctica 2</t>
+  </si>
+  <si>
+    <t>Promedio Final</t>
+  </si>
+  <si>
+    <t>Arones Mitma</t>
+  </si>
+  <si>
+    <t>Capeletti Martinez</t>
+  </si>
+  <si>
+    <t>Condori Condori</t>
+  </si>
+  <si>
+    <t>Cordero Gavilán</t>
+  </si>
+  <si>
+    <t>Gavilán Yaguana</t>
+  </si>
+  <si>
+    <t>Gonzales Torres</t>
+  </si>
+  <si>
+    <t>Guevara Valdivia</t>
+  </si>
+  <si>
+    <t>Huamani Mejía</t>
+  </si>
+  <si>
+    <t>Huayanay Yacolca</t>
+  </si>
+  <si>
+    <t>Mendez Mendoza</t>
+  </si>
+  <si>
+    <t>Naveda Zamalloa</t>
+  </si>
+  <si>
+    <t>Quispe Cano</t>
+  </si>
+  <si>
+    <t>Rodriguez Reyes</t>
+  </si>
+  <si>
+    <t>Rojas Retamozo</t>
+  </si>
+  <si>
+    <t>Santa Ana Linfoncio</t>
+  </si>
+  <si>
+    <t>Torpoco Mamani</t>
+  </si>
+  <si>
+    <t>Villa Alvarez</t>
+  </si>
+  <si>
+    <t>Zubiate Panduro</t>
+  </si>
+  <si>
+    <t>Ancco Casallo</t>
+  </si>
+  <si>
+    <t>Azabache Soto</t>
+  </si>
+  <si>
+    <t>Cabrera Phacse</t>
+  </si>
+  <si>
+    <t>Caja Sanchez</t>
+  </si>
+  <si>
+    <t>Castro Ramirez</t>
+  </si>
+  <si>
+    <t>Ccari Cchacca</t>
+  </si>
+  <si>
+    <t>Ferrando Román</t>
+  </si>
+  <si>
+    <t>Jaico Guzmán</t>
+  </si>
+  <si>
+    <t>Nuñez Yauriman</t>
+  </si>
+  <si>
+    <t>Rojas Bejarano</t>
+  </si>
+  <si>
+    <t>Ticona Huanca</t>
+  </si>
+  <si>
+    <t>Usaqui Segovia</t>
+  </si>
+  <si>
+    <t>Vargas Marín</t>
+  </si>
+  <si>
+    <t>Moc Goycochea</t>
+  </si>
+  <si>
+    <t>Meza Oviedo</t>
+  </si>
+  <si>
+    <t>Gamarra Bocanegra</t>
+  </si>
+  <si>
+    <t>Vivanco Gallardo</t>
+  </si>
+  <si>
+    <t>Ortecho Ferrari</t>
+  </si>
+  <si>
+    <t>Cahua Escate</t>
+  </si>
+  <si>
+    <t>Chaupis Huayta</t>
+  </si>
+  <si>
+    <t>Román Salazar</t>
+  </si>
+  <si>
+    <t>Risco Vargas</t>
+  </si>
+  <si>
+    <t>Alvarado Cossio</t>
+  </si>
+  <si>
+    <t>Jara Pacheco</t>
+  </si>
+  <si>
+    <t>Jaulis Crisostomo</t>
+  </si>
+  <si>
+    <t>Olivar Alarcón</t>
+  </si>
+  <si>
+    <t>Aponte Gonzales</t>
+  </si>
+  <si>
+    <t>Alzamora Alvarado</t>
+  </si>
+  <si>
+    <t>Chate Carbajal</t>
+  </si>
+  <si>
+    <t>Ccoyllulli Conza</t>
+  </si>
+  <si>
+    <t>Tafur Robles</t>
+  </si>
+  <si>
+    <t>Carbajal Toscano</t>
+  </si>
+  <si>
+    <t>Toro Arotinco</t>
+  </si>
+  <si>
+    <t>Flores Ccari</t>
+  </si>
+  <si>
+    <t>Urbina Huertas</t>
+  </si>
+  <si>
+    <t>Alvarez Sayas</t>
+  </si>
+  <si>
+    <t>Fernandez Alvarez</t>
+  </si>
+  <si>
+    <t>Sandoval Lopez</t>
+  </si>
+  <si>
+    <t>Gonzales Navarro</t>
+  </si>
+  <si>
+    <t>Lopez Rojas</t>
+  </si>
+  <si>
+    <t>Cajahuanca Hinostroza</t>
+  </si>
+  <si>
+    <t>Roque Sosa</t>
+  </si>
+  <si>
+    <t>Arroyo Carbajal</t>
+  </si>
+  <si>
+    <t>Rueda Trelles</t>
+  </si>
+  <si>
+    <t>Felices Lizarbe</t>
+  </si>
+  <si>
+    <t>Quintanilla Cruz</t>
+  </si>
+  <si>
+    <t>Chavez Valle</t>
+  </si>
+  <si>
+    <t>Barboza Barreto</t>
+  </si>
+  <si>
+    <t>Chavez Sanchez</t>
+  </si>
+  <si>
+    <t>Alvarado Agurto</t>
+  </si>
+  <si>
+    <t>Angeldonis Noziglia</t>
+  </si>
+  <si>
+    <t>Caceres Palomino</t>
+  </si>
+  <si>
+    <t>Minchan Paquiyauri</t>
+  </si>
+  <si>
+    <t>Zirena Canchari</t>
+  </si>
+  <si>
+    <t>Vazques Caicedo</t>
+  </si>
+  <si>
+    <t>Fiestas García</t>
+  </si>
+  <si>
+    <t>Henry León</t>
+  </si>
+  <si>
+    <t>Pariona Rosazza</t>
+  </si>
+  <si>
+    <t>Enciso Arroyo</t>
+  </si>
+  <si>
+    <t>De la Cruz Campos</t>
+  </si>
+  <si>
+    <t>Agreda Castañeda</t>
+  </si>
+  <si>
+    <t>Cárdenas Pérez</t>
+  </si>
+  <si>
+    <t>Condor Castillo</t>
+  </si>
+  <si>
+    <t>part 1</t>
+  </si>
+  <si>
+    <t>part 2</t>
+  </si>
+  <si>
+    <t>Bardales Lazarte</t>
+  </si>
+  <si>
+    <t>Garcia Carhuatanta</t>
+  </si>
+  <si>
+    <t>silvera ramos?</t>
+  </si>
+  <si>
+    <t>prom part</t>
+  </si>
+  <si>
+    <t>part fin</t>
+  </si>
+  <si>
+    <t>prom fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,22 +456,13 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,24 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,20 +484,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,494 +803,632 @@
     <col min="2" max="2" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5">
+      <c r="C5" s="6">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6">
         <f>C5+D5+E5+F5</f>
+        <v>48</v>
+      </c>
+      <c r="H5" s="6">
+        <f>G5/4</f>
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G12" si="0">C6+D6+E6+F6</f>
+        <v>71</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H26" si="1">G6/4</f>
+        <v>17.75</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="5">
-        <f>G5/4</f>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6">
+        <v>18</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G12" si="0">C6+D6+E6+F6</f>
-        <v>54</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6:H26" si="1">G6/4</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="1"/>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="6">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <f t="shared" ref="G13:G23" si="2">C13+D13+E13+F13</f>
         <v>37</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="I13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
         <v>19</v>
       </c>
-      <c r="D14" s="3">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="6">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6">
+        <v>18</v>
+      </c>
+      <c r="F14" s="6">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>18.25</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="1"/>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7"/>
+      <c r="E15" s="6">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>17.75</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
       <c r="D16" s="7">
         <v>17</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="C18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3">
-        <v>18</v>
-      </c>
-      <c r="F19" s="3">
-        <v>17</v>
-      </c>
-      <c r="G19">
+      <c r="C19" s="6">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="C20" s="6">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6">
+        <v>16</v>
+      </c>
+      <c r="F20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3">
-        <v>18</v>
-      </c>
-      <c r="F21" s="3">
-        <v>16</v>
-      </c>
-      <c r="G21">
+      <c r="C21" s="6">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C22" s="6">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D23">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="C23" s="6">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="G24">
+      <c r="C24" s="6">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6">
+        <v>14</v>
+      </c>
+      <c r="G24" s="6">
         <f>C24+D24+E24+F24</f>
-        <v>48</v>
-      </c>
-      <c r="H24" s="8">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6">
         <f>G24/4</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+        <v>15.5</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-      <c r="G25">
+      <c r="C25" s="6">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6">
+        <v>16</v>
+      </c>
+      <c r="E25" s="6">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6">
+        <v>8</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" ref="G25:G26" si="3">C25+D25+E25+F25</f>
-        <v>49</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>14.25</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26">
+      <c r="C26" s="6">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6">
+        <v>14</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1446,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1249,4 +1678,3173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54627AA2-47D4-485D-BAFB-0AA56B6053DD}">
+  <dimension ref="B2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <f>E5+F5</f>
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <f>G5/2</f>
+        <v>15.5</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <f>C5+D5+H5+I5</f>
+        <v>62.5</v>
+      </c>
+      <c r="L5">
+        <f>K5/4</f>
+        <v>15.625</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G34" si="0">E6+F6</f>
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H34" si="1">G6/2</f>
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K34" si="2">C6+D6+H6+I6</f>
+        <v>66</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L34" si="3">K6/4</f>
+        <v>16.5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>14.625</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="I9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>15.875</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>5.875</v>
+      </c>
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="M12" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>15.875</v>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>14.875</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>66.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>14.875</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>14.125</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>15.875</v>
+      </c>
+      <c r="M24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M25" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>18.375</v>
+      </c>
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>14.75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M28" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>14.375</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>14.75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>15.625</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>65.5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>16.375</v>
+      </c>
+      <c r="M33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>13.625</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M5:N34">
+    <sortCondition ref="M5:M34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A93ED7B-2462-49EB-ABF3-53D31055565B}">
+  <dimension ref="B2:N26"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>E5+F5</f>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>G5/2</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>C5+D5+H5+I5</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>K5/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G26" si="0">E6+F6</f>
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H26" si="1">G6/2</f>
+        <v>15.5</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K26" si="2">C6+D6+H6+I6</f>
+        <v>61.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L26" si="3">K6/4</f>
+        <v>15.375</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>59.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>14.875</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>15.125</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>15.125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>15.125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="I11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>71.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>17.875</v>
+      </c>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>58.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>14.625</v>
+      </c>
+      <c r="M12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>60.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>15.125</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>63.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>15.875</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>14.75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>15.25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>14.75</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>13.625</v>
+      </c>
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>64.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>16.125</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M22" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>61.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>15.375</v>
+      </c>
+      <c r="M24" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M5:N26">
+    <sortCondition ref="M5:M26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EB1044-5B75-43E0-959C-CEAA77A8AC29}">
+  <dimension ref="B2:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <f>C5+D5</f>
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <f>E5/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E22" si="0">C6+D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F22" si="1">E6/2</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76780E5A-3E06-4205-AF6C-A9191B463B0E}">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <f>C5+D5</f>
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <f>E5/2</f>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E17" si="0">C6+D6</f>
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F17" si="1">E6/2</f>
+        <v>19.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>